--- a/AAII_Financials/Quarterly/RBS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RBS_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="92">
   <si>
     <t>RBS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -666,110 +666,122 @@
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="12" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="14" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3776300</v>
+        <v>3304400</v>
       </c>
       <c r="E8" s="3">
-        <v>3627600</v>
+        <v>3572900</v>
       </c>
       <c r="F8" s="3">
-        <v>3551300</v>
+        <v>3597500</v>
       </c>
       <c r="G8" s="3">
-        <v>3652200</v>
+        <v>3455900</v>
       </c>
       <c r="H8" s="3">
-        <v>3594000</v>
+        <v>3383200</v>
       </c>
       <c r="I8" s="3">
+        <v>3479300</v>
+      </c>
+      <c r="J8" s="3">
+        <v>3423800</v>
+      </c>
+      <c r="K8" s="3">
         <v>3544900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>3493200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>3592100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>3675500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>3560800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>3597500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>3721200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>3681700</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -812,8 +824,14 @@
       <c r="P9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -856,8 +874,14 @@
       <c r="P10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -874,8 +898,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -918,8 +944,14 @@
       <c r="P12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -962,8 +994,14 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1006,52 +1044,64 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-299900</v>
+        <v>-237700</v>
       </c>
       <c r="E15" s="3">
-        <v>-487400</v>
+        <v>-397800</v>
       </c>
       <c r="F15" s="3">
-        <v>-315400</v>
+        <v>-285700</v>
       </c>
       <c r="G15" s="3">
-        <v>-241800</v>
+        <v>-464300</v>
       </c>
       <c r="H15" s="3">
-        <v>-266300</v>
+        <v>-300500</v>
       </c>
       <c r="I15" s="3">
+        <v>-230300</v>
+      </c>
+      <c r="J15" s="3">
+        <v>-253700</v>
+      </c>
+      <c r="K15" s="3">
         <v>-226200</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>-210700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>-232200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>-155200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>-220400</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>-450300</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>-327900</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>-230400</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1065,96 +1115,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1458300</v>
+        <v>1900400</v>
       </c>
       <c r="E17" s="3">
-        <v>1385900</v>
+        <v>1261200</v>
       </c>
       <c r="F17" s="3">
-        <v>1034200</v>
+        <v>1389200</v>
       </c>
       <c r="G17" s="3">
-        <v>861000</v>
+        <v>1320300</v>
       </c>
       <c r="H17" s="3">
-        <v>1119600</v>
+        <v>985300</v>
       </c>
       <c r="I17" s="3">
+        <v>820200</v>
+      </c>
+      <c r="J17" s="3">
+        <v>1066600</v>
+      </c>
+      <c r="K17" s="3">
         <v>808000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>819600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1013400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>856900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>733000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>716300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>715000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1017900</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2318000</v>
+        <v>1404000</v>
       </c>
       <c r="E18" s="3">
-        <v>2241700</v>
+        <v>2311700</v>
       </c>
       <c r="F18" s="3">
-        <v>2517100</v>
+        <v>2208300</v>
       </c>
       <c r="G18" s="3">
-        <v>2791200</v>
+        <v>2135600</v>
       </c>
       <c r="H18" s="3">
-        <v>2474400</v>
+        <v>2397900</v>
       </c>
       <c r="I18" s="3">
+        <v>2659000</v>
+      </c>
+      <c r="J18" s="3">
+        <v>2357300</v>
+      </c>
+      <c r="K18" s="3">
         <v>2736900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>2673500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>2578600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>2818600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>2827700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>2881100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>3006200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>2663900</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1171,52 +1235,60 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-2328400</v>
+        <v>-764800</v>
       </c>
       <c r="E20" s="3">
-        <v>-68500</v>
+        <v>-407700</v>
       </c>
       <c r="F20" s="3">
-        <v>-1207500</v>
+        <v>-2218100</v>
       </c>
       <c r="G20" s="3">
-        <v>-2051700</v>
+        <v>-65300</v>
       </c>
       <c r="H20" s="3">
-        <v>-1232000</v>
+        <v>-1150300</v>
       </c>
       <c r="I20" s="3">
+        <v>-1954500</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-1173700</v>
+      </c>
+      <c r="K20" s="3">
         <v>-1944400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-1105400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-3339000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-1682600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-1213000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-1942300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-8356300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-2328100</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1259,8 +1331,14 @@
       <c r="P21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1303,96 +1381,114 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-10300</v>
+        <v>639200</v>
       </c>
       <c r="E23" s="3">
-        <v>2173200</v>
+        <v>1904100</v>
       </c>
       <c r="F23" s="3">
-        <v>1309600</v>
+        <v>-9900</v>
       </c>
       <c r="G23" s="3">
-        <v>739500</v>
+        <v>2070300</v>
       </c>
       <c r="H23" s="3">
-        <v>1242400</v>
+        <v>1247600</v>
       </c>
       <c r="I23" s="3">
+        <v>704500</v>
+      </c>
+      <c r="J23" s="3">
+        <v>1183600</v>
+      </c>
+      <c r="K23" s="3">
         <v>792500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>1568200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-760400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>1136100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>1614700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>938900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-5350100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>335800</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>259900</v>
+        <v>231500</v>
       </c>
       <c r="E24" s="3">
-        <v>-28400</v>
+        <v>45600</v>
       </c>
       <c r="F24" s="3">
-        <v>279200</v>
+        <v>247600</v>
       </c>
       <c r="G24" s="3">
-        <v>175800</v>
+        <v>-27100</v>
       </c>
       <c r="H24" s="3">
-        <v>492600</v>
+        <v>266000</v>
       </c>
       <c r="I24" s="3">
+        <v>145300</v>
+      </c>
+      <c r="J24" s="3">
+        <v>469200</v>
+      </c>
+      <c r="K24" s="3">
         <v>512000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>404600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-219100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>345600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>521700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>430600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>321300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>766400</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1435,96 +1531,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-270200</v>
+        <v>407700</v>
       </c>
       <c r="E26" s="3">
-        <v>2201700</v>
+        <v>1858500</v>
       </c>
       <c r="F26" s="3">
-        <v>1030400</v>
+        <v>-257400</v>
       </c>
       <c r="G26" s="3">
-        <v>563700</v>
+        <v>2097400</v>
       </c>
       <c r="H26" s="3">
-        <v>749800</v>
+        <v>981600</v>
       </c>
       <c r="I26" s="3">
+        <v>559100</v>
+      </c>
+      <c r="J26" s="3">
+        <v>714300</v>
+      </c>
+      <c r="K26" s="3">
         <v>280500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>1163500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-541300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>790400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>1093000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>508300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-5671400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-430600</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-407200</v>
+        <v>354700</v>
       </c>
       <c r="E27" s="3">
-        <v>1720700</v>
+        <v>1736600</v>
       </c>
       <c r="F27" s="3">
-        <v>914000</v>
+        <v>-388000</v>
       </c>
       <c r="G27" s="3">
-        <v>369700</v>
+        <v>1639300</v>
       </c>
       <c r="H27" s="3">
-        <v>579200</v>
+        <v>870700</v>
       </c>
       <c r="I27" s="3">
+        <v>505000</v>
+      </c>
+      <c r="J27" s="3">
+        <v>551800</v>
+      </c>
+      <c r="K27" s="3">
         <v>103400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>1044600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-755200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>511300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>886900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>341000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-5847900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-617600</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1567,8 +1681,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1596,23 +1716,29 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>5</v>
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1655,8 +1781,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1699,96 +1831,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>2328400</v>
+        <v>764800</v>
       </c>
       <c r="E32" s="3">
-        <v>68500</v>
+        <v>407700</v>
       </c>
       <c r="F32" s="3">
-        <v>1207500</v>
+        <v>2218100</v>
       </c>
       <c r="G32" s="3">
-        <v>2051700</v>
+        <v>65300</v>
       </c>
       <c r="H32" s="3">
-        <v>1232000</v>
+        <v>1150300</v>
       </c>
       <c r="I32" s="3">
+        <v>1954500</v>
+      </c>
+      <c r="J32" s="3">
+        <v>1173700</v>
+      </c>
+      <c r="K32" s="3">
         <v>1944400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>1105400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>3339000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>1682600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>1213000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>1942300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>8356300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>2328100</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-407200</v>
+        <v>354700</v>
       </c>
       <c r="E33" s="3">
-        <v>1720700</v>
+        <v>1736600</v>
       </c>
       <c r="F33" s="3">
-        <v>914000</v>
+        <v>-388000</v>
       </c>
       <c r="G33" s="3">
-        <v>369700</v>
+        <v>1639300</v>
       </c>
       <c r="H33" s="3">
-        <v>579200</v>
+        <v>870700</v>
       </c>
       <c r="I33" s="3">
+        <v>505000</v>
+      </c>
+      <c r="J33" s="3">
+        <v>551800</v>
+      </c>
+      <c r="K33" s="3">
         <v>103400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>1044600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-755200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>511300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>886900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>341000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-5847900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-617600</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1831,101 +1981,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-407200</v>
+        <v>354700</v>
       </c>
       <c r="E35" s="3">
-        <v>1720700</v>
+        <v>1736600</v>
       </c>
       <c r="F35" s="3">
-        <v>914000</v>
+        <v>-388000</v>
       </c>
       <c r="G35" s="3">
-        <v>369700</v>
+        <v>1639300</v>
       </c>
       <c r="H35" s="3">
-        <v>579200</v>
+        <v>870700</v>
       </c>
       <c r="I35" s="3">
+        <v>505000</v>
+      </c>
+      <c r="J35" s="3">
+        <v>551800</v>
+      </c>
+      <c r="K35" s="3">
         <v>103400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>1044600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-755200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>511300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>886900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>341000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-5847900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-617600</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1942,8 +2110,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1960,96 +2130,110 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>125004400</v>
+        <v>111325600</v>
       </c>
       <c r="E41" s="3">
-        <v>127102600</v>
+        <v>109054500</v>
       </c>
       <c r="F41" s="3">
-        <v>125198300</v>
+        <v>119085900</v>
       </c>
       <c r="G41" s="3">
-        <v>131664900</v>
+        <v>121084800</v>
       </c>
       <c r="H41" s="3">
-        <v>160473900</v>
+        <v>119270600</v>
       </c>
       <c r="I41" s="3">
+        <v>125431100</v>
+      </c>
+      <c r="J41" s="3">
+        <v>152876000</v>
+      </c>
+      <c r="K41" s="3">
         <v>156029200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>143479900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>149462200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>136797300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>140202900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>136515600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>120523200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>117187700</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>345652100</v>
+        <v>357874600</v>
       </c>
       <c r="E42" s="3">
-        <v>298584800</v>
+        <v>279294900</v>
       </c>
       <c r="F42" s="3">
-        <v>288529300</v>
+        <v>329286700</v>
       </c>
       <c r="G42" s="3">
-        <v>269509500</v>
+        <v>284447900</v>
       </c>
       <c r="H42" s="3">
-        <v>209927800</v>
+        <v>274868500</v>
       </c>
       <c r="I42" s="3">
+        <v>256749200</v>
+      </c>
+      <c r="J42" s="3">
+        <v>199988400</v>
+      </c>
+      <c r="K42" s="3">
         <v>245701100</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>242718600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>262916300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>271807800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>304635900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>328543100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>380246800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>433229200</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2092,8 +2276,14 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2136,8 +2326,14 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2180,8 +2376,14 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2224,8 +2426,14 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2268,8 +2476,14 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2277,87 +2491,99 @@
         <v>5</v>
       </c>
       <c r="E48" s="3">
-        <v>1680700</v>
+        <v>6069300</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G48" s="3">
-        <v>5625000</v>
-      </c>
-      <c r="H48" s="3">
-        <v>5490600</v>
+        <v>1601100</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I48" s="3">
+        <v>5358700</v>
+      </c>
+      <c r="J48" s="3">
+        <v>5230600</v>
+      </c>
+      <c r="K48" s="3">
         <v>5649600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>5782700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>6002400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>6230700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>6290700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>6578700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>6044100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>5912400</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>8592000</v>
+        <v>8152000</v>
       </c>
       <c r="E49" s="3">
-        <v>8572600</v>
+        <v>8155700</v>
       </c>
       <c r="F49" s="3">
-        <v>8553200</v>
+        <v>8185200</v>
       </c>
       <c r="G49" s="3">
-        <v>8553200</v>
+        <v>8166700</v>
       </c>
       <c r="H49" s="3">
-        <v>8508000</v>
+        <v>8148300</v>
       </c>
       <c r="I49" s="3">
+        <v>8148300</v>
+      </c>
+      <c r="J49" s="3">
+        <v>8105200</v>
+      </c>
+      <c r="K49" s="3">
         <v>8493800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>8445900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>8534100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>8457100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>8435000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>8511700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>8532800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>8567000</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2400,8 +2626,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2444,8 +2676,14 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2458,38 +2696,44 @@
       <c r="F52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G52" s="3">
-        <v>3640600</v>
-      </c>
-      <c r="H52" s="3">
-        <v>2563600</v>
+      <c r="G52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I52" s="3">
+        <v>3468200</v>
+      </c>
+      <c r="J52" s="3">
+        <v>2442300</v>
+      </c>
+      <c r="K52" s="3">
         <v>2453800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>2181000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>2523800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>2135200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>2187300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>2355700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>2391300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>2234600</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2532,52 +2776,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1003876000</v>
+        <v>1007010400</v>
       </c>
       <c r="E54" s="3">
-        <v>943581900</v>
+        <v>890494800</v>
       </c>
       <c r="F54" s="3">
-        <v>929706200</v>
+        <v>956346000</v>
       </c>
       <c r="G54" s="3">
-        <v>897514000</v>
+        <v>898906700</v>
       </c>
       <c r="H54" s="3">
-        <v>930678400</v>
+        <v>885687900</v>
       </c>
       <c r="I54" s="3">
+        <v>855019800</v>
+      </c>
+      <c r="J54" s="3">
+        <v>886614100</v>
+      </c>
+      <c r="K54" s="3">
         <v>967456300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>954751800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>962653800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>980530700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1020823400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1031408700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>1051662200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1122402800</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2594,8 +2850,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2612,8 +2870,10 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2656,8 +2916,14 @@
       <c r="P57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2700,8 +2966,14 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2714,38 +2986,44 @@
       <c r="F59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G59" s="3">
-        <v>6890700</v>
-      </c>
-      <c r="H59" s="3">
-        <v>7242300</v>
+      <c r="G59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I59" s="3">
+        <v>6564400</v>
+      </c>
+      <c r="J59" s="3">
+        <v>6899400</v>
+      </c>
+      <c r="K59" s="3">
         <v>7551300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>7760700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>8337100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>9032300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>8612400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>9135900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>9205700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>21008100</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2788,52 +3066,64 @@
       <c r="P60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>74605500</v>
+        <v>72378700</v>
       </c>
       <c r="E61" s="3">
-        <v>75232500</v>
+        <v>67983100</v>
       </c>
       <c r="F61" s="3">
-        <v>67297200</v>
+        <v>71073200</v>
       </c>
       <c r="G61" s="3">
-        <v>64985700</v>
+        <v>71670500</v>
       </c>
       <c r="H61" s="3">
-        <v>63875200</v>
+        <v>64110900</v>
       </c>
       <c r="I61" s="3">
+        <v>61908800</v>
+      </c>
+      <c r="J61" s="3">
+        <v>60850900</v>
+      </c>
+      <c r="K61" s="3">
         <v>61182200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>59001300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>56451800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>59930400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>60938700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>57513400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>61446700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>62572500</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2846,38 +3136,44 @@
       <c r="F62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G62" s="3">
-        <v>4685100</v>
-      </c>
-      <c r="H62" s="3">
-        <v>7565500</v>
+      <c r="G62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I62" s="3">
+        <v>4463300</v>
+      </c>
+      <c r="J62" s="3">
+        <v>7207300</v>
+      </c>
+      <c r="K62" s="3">
         <v>12462700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>10223500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>11059200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>10143600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>15643900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>16401900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>18271800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>1564300</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2920,8 +3216,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2964,8 +3266,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3008,52 +3316,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>946824300</v>
+        <v>952619200</v>
       </c>
       <c r="E66" s="3">
-        <v>883827000</v>
+        <v>836862300</v>
       </c>
       <c r="F66" s="3">
-        <v>870066300</v>
+        <v>901995500</v>
       </c>
       <c r="G66" s="3">
-        <v>838386000</v>
+        <v>841980900</v>
       </c>
       <c r="H66" s="3">
-        <v>868783800</v>
+        <v>828871700</v>
       </c>
       <c r="I66" s="3">
+        <v>798691400</v>
+      </c>
+      <c r="J66" s="3">
+        <v>827650000</v>
+      </c>
+      <c r="K66" s="3">
         <v>905715500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>891662700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>899616500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>916974300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>956644900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>967273100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>987654400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1051987500</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3070,8 +3390,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3114,8 +3436,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3158,8 +3486,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3202,8 +3536,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3246,52 +3586,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>30437900</v>
+        <v>33184200</v>
       </c>
       <c r="E72" s="3">
-        <v>33180000</v>
+        <v>30576900</v>
       </c>
       <c r="F72" s="3">
-        <v>33106300</v>
+        <v>28996800</v>
       </c>
       <c r="G72" s="3">
-        <v>32569800</v>
+        <v>31609000</v>
       </c>
       <c r="H72" s="3">
-        <v>35816000</v>
+        <v>31538800</v>
       </c>
       <c r="I72" s="3">
+        <v>31027700</v>
+      </c>
+      <c r="J72" s="3">
+        <v>34120200</v>
+      </c>
+      <c r="K72" s="3">
         <v>35433300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>37173500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>36535000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>38143200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>37909800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>48540800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>3274900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>42729800</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3334,8 +3686,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3378,8 +3736,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3422,52 +3786,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>57051700</v>
+        <v>54391200</v>
       </c>
       <c r="E76" s="3">
-        <v>59755000</v>
+        <v>53632500</v>
       </c>
       <c r="F76" s="3">
-        <v>59639900</v>
+        <v>54350500</v>
       </c>
       <c r="G76" s="3">
-        <v>59128000</v>
+        <v>56925800</v>
       </c>
       <c r="H76" s="3">
-        <v>61894600</v>
+        <v>56816200</v>
       </c>
       <c r="I76" s="3">
+        <v>56328500</v>
+      </c>
+      <c r="J76" s="3">
+        <v>58964100</v>
+      </c>
+      <c r="K76" s="3">
         <v>61740700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>63089100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>63037300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>63556400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>64178600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>64135600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>64007800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>70415300</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3510,101 +3886,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-407200</v>
+        <v>354700</v>
       </c>
       <c r="E81" s="3">
-        <v>1720700</v>
+        <v>1736600</v>
       </c>
       <c r="F81" s="3">
-        <v>914000</v>
+        <v>-388000</v>
       </c>
       <c r="G81" s="3">
-        <v>369700</v>
+        <v>1639300</v>
       </c>
       <c r="H81" s="3">
-        <v>579200</v>
+        <v>870700</v>
       </c>
       <c r="I81" s="3">
+        <v>505000</v>
+      </c>
+      <c r="J81" s="3">
+        <v>551800</v>
+      </c>
+      <c r="K81" s="3">
         <v>103400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>1044600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-755200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>511300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>886900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>341000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-5847900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-617600</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3621,8 +4015,10 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3665,8 +4061,14 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3709,8 +4111,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3753,8 +4161,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3797,8 +4211,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3841,8 +4261,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3885,8 +4311,14 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3929,8 +4361,14 @@
       <c r="P89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3947,8 +4385,10 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3991,8 +4431,14 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4035,8 +4481,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4079,8 +4531,14 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4123,8 +4581,14 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4141,8 +4605,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4185,8 +4651,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4229,8 +4701,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4273,8 +4751,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4317,8 +4801,14 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4361,8 +4851,14 @@
       <c r="P100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4405,8 +4901,14 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4447,6 +4949,12 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>
